--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H2">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I2">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J2">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.21649044518639</v>
+        <v>0.1448673333333333</v>
       </c>
       <c r="N2">
-        <v>2.21649044518639</v>
+        <v>0.434602</v>
       </c>
       <c r="O2">
-        <v>0.5318508067113012</v>
+        <v>0.03218399861311746</v>
       </c>
       <c r="P2">
-        <v>0.5318508067113012</v>
+        <v>0.03218399861311746</v>
       </c>
       <c r="Q2">
-        <v>105.3243598266529</v>
+        <v>7.061794731688665</v>
       </c>
       <c r="R2">
-        <v>105.3243598266529</v>
+        <v>63.55615258519799</v>
       </c>
       <c r="S2">
-        <v>0.08188822608347508</v>
+        <v>0.004986559201857759</v>
       </c>
       <c r="T2">
-        <v>0.08188822608347508</v>
+        <v>0.00498655920185776</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H3">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I3">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J3">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.95101370676189</v>
+        <v>2.253188666666667</v>
       </c>
       <c r="N3">
-        <v>1.95101370676189</v>
+        <v>6.759566</v>
       </c>
       <c r="O3">
-        <v>0.4681491932886988</v>
+        <v>0.5005726222366118</v>
       </c>
       <c r="P3">
-        <v>0.4681491932886988</v>
+        <v>0.5005726222366118</v>
       </c>
       <c r="Q3">
-        <v>92.70929641225734</v>
+        <v>109.8353610137593</v>
       </c>
       <c r="R3">
-        <v>92.70929641225734</v>
+        <v>988.5182491238338</v>
       </c>
       <c r="S3">
-        <v>0.07208018958901552</v>
+        <v>0.07755826258936879</v>
       </c>
       <c r="T3">
-        <v>0.07208018958901552</v>
+        <v>0.07755826258936879</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.8969952578389</v>
+        <v>48.746633</v>
       </c>
       <c r="H4">
-        <v>17.8969952578389</v>
+        <v>146.239899</v>
       </c>
       <c r="I4">
-        <v>0.05798942457836823</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J4">
-        <v>0.05798942457836823</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.21649044518639</v>
+        <v>0.002935666666666667</v>
       </c>
       <c r="N4">
-        <v>2.21649044518639</v>
+        <v>0.008807000000000001</v>
       </c>
       <c r="O4">
-        <v>0.5318508067113012</v>
+        <v>0.0006521932153688329</v>
       </c>
       <c r="P4">
-        <v>0.5318508067113012</v>
+        <v>0.0006521932153688329</v>
       </c>
       <c r="Q4">
-        <v>39.66851898654605</v>
+        <v>0.1431038656103333</v>
       </c>
       <c r="R4">
-        <v>39.66851898654605</v>
+        <v>1.287934790493</v>
       </c>
       <c r="S4">
-        <v>0.0308417222427293</v>
+        <v>0.0001010502181093536</v>
       </c>
       <c r="T4">
-        <v>0.0308417222427293</v>
+        <v>0.0001010502181093536</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.8969952578389</v>
+        <v>48.746633</v>
       </c>
       <c r="H5">
-        <v>17.8969952578389</v>
+        <v>146.239899</v>
       </c>
       <c r="I5">
-        <v>0.05798942457836823</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J5">
-        <v>0.05798942457836823</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.95101370676189</v>
+        <v>0.003305333333333333</v>
       </c>
       <c r="N5">
-        <v>1.95101370676189</v>
+        <v>0.009915999999999999</v>
       </c>
       <c r="O5">
-        <v>0.4681491932886988</v>
+        <v>0.0007343190557053873</v>
       </c>
       <c r="P5">
-        <v>0.4681491932886988</v>
+        <v>0.0007343190557053873</v>
       </c>
       <c r="Q5">
-        <v>34.91728305789623</v>
+        <v>0.1611238709426666</v>
       </c>
       <c r="R5">
-        <v>34.91728305789623</v>
+        <v>1.450114838484</v>
       </c>
       <c r="S5">
-        <v>0.02714770233563893</v>
+        <v>0.0001137747204237936</v>
       </c>
       <c r="T5">
-        <v>0.02714770233563893</v>
+        <v>0.0001137747204237936</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>97.38132242466099</v>
+        <v>48.746633</v>
       </c>
       <c r="H6">
-        <v>97.38132242466099</v>
+        <v>146.239899</v>
       </c>
       <c r="I6">
-        <v>0.3155326785714607</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J6">
-        <v>0.3155326785714607</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.21649044518639</v>
+        <v>2.096925333333333</v>
       </c>
       <c r="N6">
-        <v>2.21649044518639</v>
+        <v>6.290775999999999</v>
       </c>
       <c r="O6">
-        <v>0.5318508067113012</v>
+        <v>0.4658568668791966</v>
       </c>
       <c r="P6">
-        <v>0.5318508067113012</v>
+        <v>0.4658568668791966</v>
       </c>
       <c r="Q6">
-        <v>215.8447706938762</v>
+        <v>102.2180496524026</v>
       </c>
       <c r="R6">
-        <v>215.8447706938762</v>
+        <v>919.9624468716238</v>
       </c>
       <c r="S6">
-        <v>0.1678163096420091</v>
+        <v>0.07217943532157227</v>
       </c>
       <c r="T6">
-        <v>0.1678163096420091</v>
+        <v>0.07217943532157227</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>97.38132242466099</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H7">
-        <v>97.38132242466099</v>
+        <v>55.966988</v>
       </c>
       <c r="I7">
-        <v>0.3155326785714607</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J7">
-        <v>0.3155326785714607</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.95101370676189</v>
+        <v>0.1448673333333333</v>
       </c>
       <c r="N7">
-        <v>1.95101370676189</v>
+        <v>0.434602</v>
       </c>
       <c r="O7">
-        <v>0.4681491932886988</v>
+        <v>0.03218399861311746</v>
       </c>
       <c r="P7">
-        <v>0.4681491932886988</v>
+        <v>0.03218399861311746</v>
       </c>
       <c r="Q7">
-        <v>189.9922948331126</v>
+        <v>2.702596102086222</v>
       </c>
       <c r="R7">
-        <v>189.9922948331126</v>
+        <v>24.323364918776</v>
       </c>
       <c r="S7">
-        <v>0.1477163689294516</v>
+        <v>0.00190838957712671</v>
       </c>
       <c r="T7">
-        <v>0.1477163689294516</v>
+        <v>0.001908389577126711</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>136.873918857693</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H8">
-        <v>136.873918857693</v>
+        <v>55.966988</v>
       </c>
       <c r="I8">
-        <v>0.4434956639365127</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J8">
-        <v>0.4434956639365127</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.21649044518639</v>
+        <v>2.253188666666667</v>
       </c>
       <c r="N8">
-        <v>2.21649044518639</v>
+        <v>6.759566</v>
       </c>
       <c r="O8">
-        <v>0.5318508067113012</v>
+        <v>0.5005726222366118</v>
       </c>
       <c r="P8">
-        <v>0.5318508067113012</v>
+        <v>0.5005726222366118</v>
       </c>
       <c r="Q8">
-        <v>303.3797333432938</v>
+        <v>42.03472768968978</v>
       </c>
       <c r="R8">
-        <v>303.3797333432938</v>
+        <v>378.312549207208</v>
       </c>
       <c r="S8">
-        <v>0.2358735266375984</v>
+        <v>0.02968206612095686</v>
       </c>
       <c r="T8">
-        <v>0.2358735266375984</v>
+        <v>0.02968206612095686</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>136.873918857693</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H9">
-        <v>136.873918857693</v>
+        <v>55.966988</v>
       </c>
       <c r="I9">
-        <v>0.4434956639365127</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J9">
-        <v>0.4434956639365127</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.95101370676189</v>
+        <v>0.002935666666666667</v>
       </c>
       <c r="N9">
-        <v>1.95101370676189</v>
+        <v>0.008807000000000001</v>
       </c>
       <c r="O9">
-        <v>0.4681491932886988</v>
+        <v>0.0006521932153688329</v>
       </c>
       <c r="P9">
-        <v>0.4681491932886988</v>
+        <v>0.0006521932153688329</v>
       </c>
       <c r="Q9">
-        <v>267.0428917895738</v>
+        <v>0.05476680703511112</v>
       </c>
       <c r="R9">
-        <v>267.0428917895738</v>
+        <v>0.492901263316</v>
       </c>
       <c r="S9">
-        <v>0.2076221372989143</v>
+        <v>3.867259470907852E-05</v>
       </c>
       <c r="T9">
-        <v>0.2076221372989143</v>
+        <v>3.867259470907852E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.95439389772258</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H10">
-        <v>8.95439389772258</v>
+        <v>55.966988</v>
       </c>
       <c r="I10">
-        <v>0.02901381724116778</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J10">
-        <v>0.02901381724116778</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.21649044518639</v>
+        <v>0.003305333333333333</v>
       </c>
       <c r="N10">
-        <v>2.21649044518639</v>
+        <v>0.009915999999999999</v>
       </c>
       <c r="O10">
-        <v>0.5318508067113012</v>
+        <v>0.0007343190557053873</v>
       </c>
       <c r="P10">
-        <v>0.5318508067113012</v>
+        <v>0.0007343190557053873</v>
       </c>
       <c r="Q10">
-        <v>19.84732851673741</v>
+        <v>0.06166318366755556</v>
       </c>
       <c r="R10">
-        <v>19.84732851673741</v>
+        <v>0.554968653008</v>
       </c>
       <c r="S10">
-        <v>0.01543102210548935</v>
+        <v>4.354234689851511E-05</v>
       </c>
       <c r="T10">
-        <v>0.01543102210548935</v>
+        <v>4.354234689851511E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,52 +1092,982 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.95439389772258</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H11">
-        <v>8.95439389772258</v>
+        <v>55.966988</v>
       </c>
       <c r="I11">
-        <v>0.02901381724116778</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J11">
-        <v>0.02901381724116778</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.95101370676189</v>
+        <v>2.096925333333333</v>
       </c>
       <c r="N11">
-        <v>1.95101370676189</v>
+        <v>6.290775999999999</v>
       </c>
       <c r="O11">
-        <v>0.4681491932886988</v>
+        <v>0.4658568668791966</v>
       </c>
       <c r="P11">
-        <v>0.4681491932886988</v>
+        <v>0.4658568668791966</v>
       </c>
       <c r="Q11">
-        <v>17.47014523020178</v>
+        <v>39.11953165585422</v>
       </c>
       <c r="R11">
-        <v>17.47014523020178</v>
+        <v>352.075784902688</v>
       </c>
       <c r="S11">
-        <v>0.01358279513567844</v>
+        <v>0.02762355292989646</v>
       </c>
       <c r="T11">
-        <v>0.01358279513567844</v>
+        <v>0.02762355292989645</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>97.66137466666667</v>
+      </c>
+      <c r="H12">
+        <v>292.984124</v>
+      </c>
+      <c r="I12">
+        <v>0.310412490288807</v>
+      </c>
+      <c r="J12">
+        <v>0.310412490288807</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1448673333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.434602</v>
+      </c>
+      <c r="O12">
+        <v>0.03218399861311746</v>
+      </c>
+      <c r="P12">
+        <v>0.03218399861311746</v>
+      </c>
+      <c r="Q12">
+        <v>14.14794291762755</v>
+      </c>
+      <c r="R12">
+        <v>127.331486258648</v>
+      </c>
+      <c r="S12">
+        <v>0.009990315156949302</v>
+      </c>
+      <c r="T12">
+        <v>0.009990315156949304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>97.66137466666667</v>
+      </c>
+      <c r="H13">
+        <v>292.984124</v>
+      </c>
+      <c r="I13">
+        <v>0.310412490288807</v>
+      </c>
+      <c r="J13">
+        <v>0.310412490288807</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.253188666666667</v>
+      </c>
+      <c r="N13">
+        <v>6.759566</v>
+      </c>
+      <c r="O13">
+        <v>0.5005726222366118</v>
+      </c>
+      <c r="P13">
+        <v>0.5005726222366118</v>
+      </c>
+      <c r="Q13">
+        <v>220.0495025700205</v>
+      </c>
+      <c r="R13">
+        <v>1980.445523130184</v>
+      </c>
+      <c r="S13">
+        <v>0.1553839942388649</v>
+      </c>
+      <c r="T13">
+        <v>0.1553839942388649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>97.66137466666667</v>
+      </c>
+      <c r="H14">
+        <v>292.984124</v>
+      </c>
+      <c r="I14">
+        <v>0.310412490288807</v>
+      </c>
+      <c r="J14">
+        <v>0.310412490288807</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.002935666666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.008807000000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.0006521932153688329</v>
+      </c>
+      <c r="P14">
+        <v>0.0006521932153688329</v>
+      </c>
+      <c r="Q14">
+        <v>0.2867012422297778</v>
+      </c>
+      <c r="R14">
+        <v>2.580311180068</v>
+      </c>
+      <c r="S14">
+        <v>0.0002024489201321037</v>
+      </c>
+      <c r="T14">
+        <v>0.0002024489201321037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>97.66137466666667</v>
+      </c>
+      <c r="H15">
+        <v>292.984124</v>
+      </c>
+      <c r="I15">
+        <v>0.310412490288807</v>
+      </c>
+      <c r="J15">
+        <v>0.310412490288807</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.003305333333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.009915999999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.0007343190557053873</v>
+      </c>
+      <c r="P15">
+        <v>0.0007343190557053873</v>
+      </c>
+      <c r="Q15">
+        <v>0.3228033970648889</v>
+      </c>
+      <c r="R15">
+        <v>2.905230573584</v>
+      </c>
+      <c r="S15">
+        <v>0.0002279418067480345</v>
+      </c>
+      <c r="T15">
+        <v>0.0002279418067480345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>97.66137466666667</v>
+      </c>
+      <c r="H16">
+        <v>292.984124</v>
+      </c>
+      <c r="I16">
+        <v>0.310412490288807</v>
+      </c>
+      <c r="J16">
+        <v>0.310412490288807</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.096925333333333</v>
+      </c>
+      <c r="N16">
+        <v>6.290775999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.4658568668791966</v>
+      </c>
+      <c r="P16">
+        <v>0.4658568668791966</v>
+      </c>
+      <c r="Q16">
+        <v>204.7886106266915</v>
+      </c>
+      <c r="R16">
+        <v>1843.097495640224</v>
+      </c>
+      <c r="S16">
+        <v>0.1446077901661127</v>
+      </c>
+      <c r="T16">
+        <v>0.1446077901661127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>138.7199146666667</v>
+      </c>
+      <c r="H17">
+        <v>416.159744</v>
+      </c>
+      <c r="I17">
+        <v>0.4409152985128724</v>
+      </c>
+      <c r="J17">
+        <v>0.4409152985128724</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1448673333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.434602</v>
+      </c>
+      <c r="O17">
+        <v>0.03218399861311746</v>
+      </c>
+      <c r="P17">
+        <v>0.03218399861311746</v>
+      </c>
+      <c r="Q17">
+        <v>20.09598411798756</v>
+      </c>
+      <c r="R17">
+        <v>180.863857061888</v>
+      </c>
+      <c r="S17">
+        <v>0.01419041735584056</v>
+      </c>
+      <c r="T17">
+        <v>0.01419041735584056</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>138.7199146666667</v>
+      </c>
+      <c r="H18">
+        <v>416.159744</v>
+      </c>
+      <c r="I18">
+        <v>0.4409152985128724</v>
+      </c>
+      <c r="J18">
+        <v>0.4409152985128724</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.253188666666667</v>
+      </c>
+      <c r="N18">
+        <v>6.759566</v>
+      </c>
+      <c r="O18">
+        <v>0.5005726222366118</v>
+      </c>
+      <c r="P18">
+        <v>0.5005726222366118</v>
+      </c>
+      <c r="Q18">
+        <v>312.5621395679004</v>
+      </c>
+      <c r="R18">
+        <v>2813.059256111104</v>
+      </c>
+      <c r="S18">
+        <v>0.220710127160827</v>
+      </c>
+      <c r="T18">
+        <v>0.220710127160827</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>138.7199146666667</v>
+      </c>
+      <c r="H19">
+        <v>416.159744</v>
+      </c>
+      <c r="I19">
+        <v>0.4409152985128724</v>
+      </c>
+      <c r="J19">
+        <v>0.4409152985128724</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.002935666666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.008807000000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.0006521932153688329</v>
+      </c>
+      <c r="P19">
+        <v>0.0006521932153688329</v>
+      </c>
+      <c r="Q19">
+        <v>0.4072354294897778</v>
+      </c>
+      <c r="R19">
+        <v>3.665118865408</v>
+      </c>
+      <c r="S19">
+        <v>0.0002875619662424191</v>
+      </c>
+      <c r="T19">
+        <v>0.0002875619662424191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>138.7199146666667</v>
+      </c>
+      <c r="H20">
+        <v>416.159744</v>
+      </c>
+      <c r="I20">
+        <v>0.4409152985128724</v>
+      </c>
+      <c r="J20">
+        <v>0.4409152985128724</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.003305333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.009915999999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.0007343190557053873</v>
+      </c>
+      <c r="P20">
+        <v>0.0007343190557053873</v>
+      </c>
+      <c r="Q20">
+        <v>0.4585155579448889</v>
+      </c>
+      <c r="R20">
+        <v>4.126640021504</v>
+      </c>
+      <c r="S20">
+        <v>0.0003237725056500315</v>
+      </c>
+      <c r="T20">
+        <v>0.0003237725056500315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>138.7199146666667</v>
+      </c>
+      <c r="H21">
+        <v>416.159744</v>
+      </c>
+      <c r="I21">
+        <v>0.4409152985128724</v>
+      </c>
+      <c r="J21">
+        <v>0.4409152985128724</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.096925333333333</v>
+      </c>
+      <c r="N21">
+        <v>6.290775999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.4658568668791966</v>
+      </c>
+      <c r="P21">
+        <v>0.4658568668791966</v>
+      </c>
+      <c r="Q21">
+        <v>290.8853033023715</v>
+      </c>
+      <c r="R21">
+        <v>2617.967729721344</v>
+      </c>
+      <c r="S21">
+        <v>0.2054034195243124</v>
+      </c>
+      <c r="T21">
+        <v>0.2054034195243124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>10.83447233333333</v>
+      </c>
+      <c r="H22">
+        <v>32.503417</v>
+      </c>
+      <c r="I22">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="J22">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1448673333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.434602</v>
+      </c>
+      <c r="O22">
+        <v>0.03218399861311746</v>
+      </c>
+      <c r="P22">
+        <v>0.03218399861311746</v>
+      </c>
+      <c r="Q22">
+        <v>1.569561115003778</v>
+      </c>
+      <c r="R22">
+        <v>14.126050035034</v>
+      </c>
+      <c r="S22">
+        <v>0.00110831732134313</v>
+      </c>
+      <c r="T22">
+        <v>0.001108317321343131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>10.83447233333333</v>
+      </c>
+      <c r="H23">
+        <v>32.503417</v>
+      </c>
+      <c r="I23">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="J23">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.253188666666667</v>
+      </c>
+      <c r="N23">
+        <v>6.759566</v>
+      </c>
+      <c r="O23">
+        <v>0.5005726222366118</v>
+      </c>
+      <c r="P23">
+        <v>0.5005726222366118</v>
+      </c>
+      <c r="Q23">
+        <v>24.41211027078022</v>
+      </c>
+      <c r="R23">
+        <v>219.708992437022</v>
+      </c>
+      <c r="S23">
+        <v>0.01723817212659422</v>
+      </c>
+      <c r="T23">
+        <v>0.01723817212659422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>10.83447233333333</v>
+      </c>
+      <c r="H24">
+        <v>32.503417</v>
+      </c>
+      <c r="I24">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="J24">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.002935666666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.008807000000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.0006521932153688329</v>
+      </c>
+      <c r="P24">
+        <v>0.0006521932153688329</v>
+      </c>
+      <c r="Q24">
+        <v>0.03180639927988889</v>
+      </c>
+      <c r="R24">
+        <v>0.286257593519</v>
+      </c>
+      <c r="S24">
+        <v>2.245951617587805E-05</v>
+      </c>
+      <c r="T24">
+        <v>2.245951617587805E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>10.83447233333333</v>
+      </c>
+      <c r="H25">
+        <v>32.503417</v>
+      </c>
+      <c r="I25">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="J25">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.003305333333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.009915999999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.0007343190557053873</v>
+      </c>
+      <c r="P25">
+        <v>0.0007343190557053873</v>
+      </c>
+      <c r="Q25">
+        <v>0.03581154255244444</v>
+      </c>
+      <c r="R25">
+        <v>0.322303882972</v>
+      </c>
+      <c r="S25">
+        <v>2.528767598501268E-05</v>
+      </c>
+      <c r="T25">
+        <v>2.528767598501268E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>10.83447233333333</v>
+      </c>
+      <c r="H26">
+        <v>32.503417</v>
+      </c>
+      <c r="I26">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="J26">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.096925333333333</v>
+      </c>
+      <c r="N26">
+        <v>6.290775999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.4658568668791966</v>
+      </c>
+      <c r="P26">
+        <v>0.4658568668791966</v>
+      </c>
+      <c r="Q26">
+        <v>22.71907950906577</v>
+      </c>
+      <c r="R26">
+        <v>204.471715581592</v>
+      </c>
+      <c r="S26">
+        <v>0.01604266893730276</v>
+      </c>
+      <c r="T26">
+        <v>0.01604266893730276</v>
       </c>
     </row>
   </sheetData>
